--- a/output/main/Схема ПЛК.xlsx
+++ b/output/main/Схема ПЛК.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Q1</t>
   </si>
@@ -123,46 +123,61 @@
     <t>UI12</t>
   </si>
   <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>PDS3</t>
+  </si>
+  <si>
+    <t>HLR1</t>
+  </si>
+  <si>
+    <t>1U1C</t>
+  </si>
+  <si>
+    <t>EW1</t>
+  </si>
+  <si>
+    <t>1U1W</t>
+  </si>
+  <si>
+    <t>2U1W</t>
+  </si>
+  <si>
     <t>PDS2</t>
   </si>
   <si>
+    <t>PDS4</t>
+  </si>
+  <si>
+    <t>PDS9</t>
+  </si>
+  <si>
     <t>Т3</t>
   </si>
   <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>1U1A</t>
+  </si>
+  <si>
+    <t>2U1A</t>
+  </si>
+  <si>
     <t>TK1</t>
   </si>
   <si>
-    <t>Т5</t>
-  </si>
-  <si>
-    <t>3Y1</t>
-  </si>
-  <si>
-    <t>ваы</t>
-  </si>
-  <si>
-    <t>увв</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>dff</t>
-  </si>
-  <si>
-    <t>UO2</t>
-  </si>
-  <si>
-    <t>ыв</t>
-  </si>
-  <si>
-    <t>ыввы</t>
-  </si>
-  <si>
-    <t>ывфывы</t>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>2U1C</t>
+  </si>
+  <si>
+    <t>UO3</t>
+  </si>
+  <si>
+    <t>UO4</t>
   </si>
 </sst>
 </file>
@@ -219,21 +234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF000000"/>
@@ -270,31 +270,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,7 +588,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,42 +618,39 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,20 +674,23 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,13 +740,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,52 +780,59 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7" t="s">
-        <v>43</v>
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
